--- a/Data Contract/Data_Contract.xlsx
+++ b/Data Contract/Data_Contract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karti\OneDrive\Documents\Github Cloning\Food-Ordering-Application\Data Contract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF259526-6D52-4343-8084-D7D3127A71A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635EF22A-7FB9-4627-A47C-8DA2C70A2D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="155" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="155" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data Contract/Data_Contract.xlsx
+++ b/Data Contract/Data_Contract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karti\OneDrive\Documents\Github Cloning\Food-Ordering-Application\Data Contract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635EF22A-7FB9-4627-A47C-8DA2C70A2D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D10C39B-060B-4CC4-8EAD-D4E5DBBA6E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>API-NAME</t>
   </si>
@@ -112,9 +112,6 @@
     <t>vendorCompany</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>orderId</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>View Order history</t>
   </si>
   <si>
-    <t>/user/{userId}/orders</t>
-  </si>
-  <si>
     <t xml:space="preserve">{                                                           List&lt;FoodQuantity&gt;,                                                                  }                                                           userId:int                                                                                           </t>
   </si>
   <si>
@@ -197,6 +191,12 @@
   </si>
   <si>
     <t>/items</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>/users/{userId}/orders</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="155" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A12" zoomScale="155" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,12 +653,12 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -667,28 +667,28 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
         <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -699,15 +699,15 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
         <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -731,26 +731,26 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
         <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -761,7 +761,7 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -769,7 +769,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,65 +820,63 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
